--- a/data/metro_sim_month.xlsx
+++ b/data/metro_sim_month.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\35cpf\KRRI_regression_streamlit-master_230209\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\streamlit_proJ\KRRI_metro_energy\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06FA4A8A-1DCF-4125-9B4A-4520551009CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD705C3F-9570-4FDD-8EB9-81CC05F26A1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="3660" windowWidth="29040" windowHeight="15720" xr2:uid="{36C80AAB-B3B6-423F-8100-0ACE8489248F}"/>
+    <workbookView xWindow="28680" yWindow="-4185" windowWidth="16440" windowHeight="28320" xr2:uid="{36C80AAB-B3B6-423F-8100-0ACE8489248F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -379,7 +379,7 @@
   <numFmts count="1">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -782,16 +782,16 @@
   <dimension ref="A1:CQ57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.125" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="14.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.375" customWidth="1"/>
-    <col min="96" max="16384" width="14.125" style="4"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="96" max="16384" width="14.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:95" ht="24">
+    <row r="1" spans="1:95" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1078,7 +1078,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:95">
+    <row r="2" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>25</v>
       </c>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="H2" s="2">
-        <v>10154</v>
+        <v>49148.800000000003</v>
       </c>
       <c r="I2" s="2">
         <v>3</v>
@@ -1365,7 +1365,7 @@
         <v>92.459699999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:95">
+    <row r="3" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>20</v>
       </c>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="2">
-        <v>10154</v>
+        <v>49148.800000000003</v>
       </c>
       <c r="I3" s="2">
         <v>3</v>
@@ -1652,7 +1652,7 @@
         <v>92.459530000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:95">
+    <row r="4" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>15</v>
       </c>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="2">
-        <v>10154</v>
+        <v>49148.800000000003</v>
       </c>
       <c r="I4" s="2">
         <v>3</v>
@@ -1939,7 +1939,7 @@
         <v>92.458330000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:95">
+    <row r="5" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>25</v>
       </c>
@@ -1962,7 +1962,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="2">
-        <v>10154</v>
+        <v>49148.800000000003</v>
       </c>
       <c r="I5" s="2">
         <v>3</v>
@@ -2226,7 +2226,7 @@
         <v>92.459699999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:95">
+    <row r="6" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>25</v>
       </c>
@@ -2249,7 +2249,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="2">
-        <v>10154</v>
+        <v>49148.800000000003</v>
       </c>
       <c r="I6" s="2">
         <v>3</v>
@@ -2513,7 +2513,7 @@
         <v>92.459599999999995</v>
       </c>
     </row>
-    <row r="7" spans="1:95">
+    <row r="7" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>25</v>
       </c>
@@ -2536,7 +2536,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="2">
-        <v>10154</v>
+        <v>49148.800000000003</v>
       </c>
       <c r="I7" s="2">
         <v>3</v>
@@ -2800,7 +2800,7 @@
         <v>92.459699999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:95">
+    <row r="8" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>25</v>
       </c>
@@ -2823,7 +2823,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="2">
-        <v>10154</v>
+        <v>49148.800000000003</v>
       </c>
       <c r="I8" s="2">
         <v>3</v>
@@ -3087,7 +3087,7 @@
         <v>92.459699999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:95">
+    <row r="9" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>25</v>
       </c>
@@ -3110,7 +3110,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="2">
-        <v>10154</v>
+        <v>49148.800000000003</v>
       </c>
       <c r="I9" s="2">
         <v>3</v>
@@ -3374,7 +3374,7 @@
         <v>92.459699999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:95">
+    <row r="10" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>25</v>
       </c>
@@ -3397,7 +3397,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="2">
-        <v>10154</v>
+        <v>49148.800000000003</v>
       </c>
       <c r="I10" s="2">
         <v>3</v>
@@ -3661,7 +3661,7 @@
         <v>92.459699999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:95">
+    <row r="11" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>25</v>
       </c>
@@ -3684,7 +3684,7 @@
         <v>0</v>
       </c>
       <c r="H11" s="2">
-        <v>10154</v>
+        <v>49148.800000000003</v>
       </c>
       <c r="I11" s="2">
         <v>3</v>
@@ -3948,7 +3948,7 @@
         <v>92.459699999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:95">
+    <row r="12" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>25</v>
       </c>
@@ -3971,7 +3971,7 @@
         <v>0</v>
       </c>
       <c r="H12" s="2">
-        <v>10154</v>
+        <v>49148.800000000003</v>
       </c>
       <c r="I12" s="2">
         <v>3</v>
@@ -4235,7 +4235,7 @@
         <v>92.459699999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:95">
+    <row r="13" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>25</v>
       </c>
@@ -4258,7 +4258,7 @@
         <v>0</v>
       </c>
       <c r="H13" s="2">
-        <v>10154</v>
+        <v>49148.800000000003</v>
       </c>
       <c r="I13" s="2">
         <v>3</v>
@@ -4522,7 +4522,7 @@
         <v>92.459559999999996</v>
       </c>
     </row>
-    <row r="14" spans="1:95">
+    <row r="14" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>25</v>
       </c>
@@ -4545,7 +4545,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="2">
-        <v>10154</v>
+        <v>49148.800000000003</v>
       </c>
       <c r="I14" s="2">
         <v>3</v>
@@ -4809,7 +4809,7 @@
         <v>92.459559999999996</v>
       </c>
     </row>
-    <row r="15" spans="1:95">
+    <row r="15" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>25</v>
       </c>
@@ -4832,7 +4832,7 @@
         <v>1</v>
       </c>
       <c r="H15" s="2">
-        <v>10154</v>
+        <v>49148.800000000003</v>
       </c>
       <c r="I15" s="2">
         <v>3</v>
@@ -5096,7 +5096,7 @@
         <v>92.458849999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:95">
+    <row r="16" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>25</v>
       </c>
@@ -5119,7 +5119,7 @@
         <v>0</v>
       </c>
       <c r="H16" s="1">
-        <v>9135.2000000000007</v>
+        <v>22309.7</v>
       </c>
       <c r="I16" s="1">
         <v>2</v>
@@ -5383,7 +5383,7 @@
         <v>201.43350000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:95">
+    <row r="17" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>20</v>
       </c>
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="H17" s="1">
-        <v>9135.2000000000007</v>
+        <v>22309.7</v>
       </c>
       <c r="I17" s="1">
         <v>2</v>
@@ -5670,7 +5670,7 @@
         <v>201.43209999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:95">
+    <row r="18" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -5693,7 +5693,7 @@
         <v>0</v>
       </c>
       <c r="H18" s="1">
-        <v>9135.2000000000007</v>
+        <v>22309.7</v>
       </c>
       <c r="I18" s="1">
         <v>2</v>
@@ -5957,7 +5957,7 @@
         <v>201.43109999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:95">
+    <row r="19" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>25</v>
       </c>
@@ -5980,7 +5980,7 @@
         <v>0</v>
       </c>
       <c r="H19" s="1">
-        <v>9135.2000000000007</v>
+        <v>22309.7</v>
       </c>
       <c r="I19" s="1">
         <v>2</v>
@@ -6244,7 +6244,7 @@
         <v>201.43209999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:95">
+    <row r="20" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>25</v>
       </c>
@@ -6267,7 +6267,7 @@
         <v>0</v>
       </c>
       <c r="H20" s="1">
-        <v>9135.2000000000007</v>
+        <v>22309.7</v>
       </c>
       <c r="I20" s="1">
         <v>2</v>
@@ -6531,7 +6531,7 @@
         <v>201.43270000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:95">
+    <row r="21" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>25</v>
       </c>
@@ -6554,7 +6554,7 @@
         <v>0</v>
       </c>
       <c r="H21" s="1">
-        <v>9135.2000000000007</v>
+        <v>22309.7</v>
       </c>
       <c r="I21" s="1">
         <v>2</v>
@@ -6818,7 +6818,7 @@
         <v>201.43350000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:95">
+    <row r="22" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>25</v>
       </c>
@@ -6841,7 +6841,7 @@
         <v>0</v>
       </c>
       <c r="H22" s="1">
-        <v>9135.2000000000007</v>
+        <v>22309.7</v>
       </c>
       <c r="I22" s="1">
         <v>2</v>
@@ -7105,7 +7105,7 @@
         <v>201.43350000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:95">
+    <row r="23" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>25</v>
       </c>
@@ -7128,7 +7128,7 @@
         <v>0</v>
       </c>
       <c r="H23" s="1">
-        <v>9135.2000000000007</v>
+        <v>22309.7</v>
       </c>
       <c r="I23" s="1">
         <v>2</v>
@@ -7392,7 +7392,7 @@
         <v>201.43350000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:95">
+    <row r="24" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>25</v>
       </c>
@@ -7415,7 +7415,7 @@
         <v>0</v>
       </c>
       <c r="H24" s="1">
-        <v>9135.2000000000007</v>
+        <v>22309.7</v>
       </c>
       <c r="I24" s="1">
         <v>2</v>
@@ -7679,7 +7679,7 @@
         <v>201.43350000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:95">
+    <row r="25" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>25</v>
       </c>
@@ -7702,7 +7702,7 @@
         <v>0</v>
       </c>
       <c r="H25" s="1">
-        <v>9135.2000000000007</v>
+        <v>22309.7</v>
       </c>
       <c r="I25" s="1">
         <v>2</v>
@@ -7966,7 +7966,7 @@
         <v>201.43350000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:95">
+    <row r="26" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -7989,7 +7989,7 @@
         <v>0</v>
       </c>
       <c r="H26" s="1">
-        <v>9135.2000000000007</v>
+        <v>22309.7</v>
       </c>
       <c r="I26" s="1">
         <v>2</v>
@@ -8253,7 +8253,7 @@
         <v>201.43350000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:95">
+    <row r="27" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -8276,7 +8276,7 @@
         <v>0</v>
       </c>
       <c r="H27" s="1">
-        <v>9135.2000000000007</v>
+        <v>22309.7</v>
       </c>
       <c r="I27" s="1">
         <v>2</v>
@@ -8540,7 +8540,7 @@
         <v>201.43350000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:95">
+    <row r="28" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>25</v>
       </c>
@@ -8563,7 +8563,7 @@
         <v>0</v>
       </c>
       <c r="H28" s="1">
-        <v>9135.2000000000007</v>
+        <v>22309.7</v>
       </c>
       <c r="I28" s="1">
         <v>2</v>
@@ -8827,7 +8827,7 @@
         <v>201.43350000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:95">
+    <row r="29" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>25</v>
       </c>
@@ -8850,7 +8850,7 @@
         <v>1</v>
       </c>
       <c r="H29" s="1">
-        <v>9135.2000000000007</v>
+        <v>22309.7</v>
       </c>
       <c r="I29" s="1">
         <v>2</v>
@@ -9114,7 +9114,7 @@
         <v>201.4521</v>
       </c>
     </row>
-    <row r="30" spans="1:95">
+    <row r="30" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>25</v>
       </c>
@@ -9137,7 +9137,7 @@
         <v>0</v>
       </c>
       <c r="H30" s="1">
-        <v>6181.6</v>
+        <v>22950.400000000001</v>
       </c>
       <c r="I30" s="1">
         <v>2</v>
@@ -9401,7 +9401,7 @@
         <v>242.46639999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:95">
+    <row r="31" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>20</v>
       </c>
@@ -9424,7 +9424,7 @@
         <v>0</v>
       </c>
       <c r="H31" s="1">
-        <v>6181.6</v>
+        <v>22950.400000000001</v>
       </c>
       <c r="I31" s="1">
         <v>2</v>
@@ -9688,7 +9688,7 @@
         <v>242.46639999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:95">
+    <row r="32" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>15</v>
       </c>
@@ -9711,7 +9711,7 @@
         <v>0</v>
       </c>
       <c r="H32" s="1">
-        <v>6181.6</v>
+        <v>22950.400000000001</v>
       </c>
       <c r="I32" s="1">
         <v>2</v>
@@ -9975,7 +9975,7 @@
         <v>242.46639999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:95">
+    <row r="33" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>25</v>
       </c>
@@ -9998,7 +9998,7 @@
         <v>0</v>
       </c>
       <c r="H33" s="1">
-        <v>6181.6</v>
+        <v>22950.400000000001</v>
       </c>
       <c r="I33" s="1">
         <v>2</v>
@@ -10262,7 +10262,7 @@
         <v>242.46709999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:95">
+    <row r="34" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>25</v>
       </c>
@@ -10285,7 +10285,7 @@
         <v>0</v>
       </c>
       <c r="H34" s="1">
-        <v>6181.6</v>
+        <v>22950.400000000001</v>
       </c>
       <c r="I34" s="1">
         <v>2</v>
@@ -10549,7 +10549,7 @@
         <v>242.47</v>
       </c>
     </row>
-    <row r="35" spans="1:95">
+    <row r="35" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>25</v>
       </c>
@@ -10572,7 +10572,7 @@
         <v>0</v>
       </c>
       <c r="H35" s="1">
-        <v>6181.6</v>
+        <v>22950.400000000001</v>
       </c>
       <c r="I35" s="1">
         <v>2</v>
@@ -10836,7 +10836,7 @@
         <v>242.46639999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:95">
+    <row r="36" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>25</v>
       </c>
@@ -10859,7 +10859,7 @@
         <v>0</v>
       </c>
       <c r="H36" s="1">
-        <v>6181.6</v>
+        <v>22950.400000000001</v>
       </c>
       <c r="I36" s="1">
         <v>2</v>
@@ -11123,7 +11123,7 @@
         <v>242.46639999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:95">
+    <row r="37" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>25</v>
       </c>
@@ -11146,7 +11146,7 @@
         <v>0</v>
       </c>
       <c r="H37" s="1">
-        <v>6181.6</v>
+        <v>22950.400000000001</v>
       </c>
       <c r="I37" s="1">
         <v>2</v>
@@ -11410,7 +11410,7 @@
         <v>242.46639999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:95">
+    <row r="38" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>25</v>
       </c>
@@ -11433,7 +11433,7 @@
         <v>0</v>
       </c>
       <c r="H38" s="1">
-        <v>6181.6</v>
+        <v>22950.400000000001</v>
       </c>
       <c r="I38" s="1">
         <v>2</v>
@@ -11697,7 +11697,7 @@
         <v>242.46639999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:95">
+    <row r="39" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>25</v>
       </c>
@@ -11720,7 +11720,7 @@
         <v>0</v>
       </c>
       <c r="H39" s="1">
-        <v>6181.6</v>
+        <v>22950.400000000001</v>
       </c>
       <c r="I39" s="1">
         <v>2</v>
@@ -11984,7 +11984,7 @@
         <v>242.46639999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:95">
+    <row r="40" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>25</v>
       </c>
@@ -12007,7 +12007,7 @@
         <v>0</v>
       </c>
       <c r="H40" s="1">
-        <v>6181.6</v>
+        <v>22950.400000000001</v>
       </c>
       <c r="I40" s="1">
         <v>2</v>
@@ -12271,7 +12271,7 @@
         <v>242.46639999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:95">
+    <row r="41" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>25</v>
       </c>
@@ -12294,7 +12294,7 @@
         <v>0</v>
       </c>
       <c r="H41" s="1">
-        <v>6181.6</v>
+        <v>22950.400000000001</v>
       </c>
       <c r="I41" s="1">
         <v>2</v>
@@ -12558,7 +12558,7 @@
         <v>242.46639999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:95">
+    <row r="42" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>25</v>
       </c>
@@ -12581,7 +12581,7 @@
         <v>0</v>
       </c>
       <c r="H42" s="1">
-        <v>6181.6</v>
+        <v>22950.400000000001</v>
       </c>
       <c r="I42" s="1">
         <v>2</v>
@@ -12845,7 +12845,7 @@
         <v>242.46639999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:95">
+    <row r="43" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>25</v>
       </c>
@@ -12868,7 +12868,7 @@
         <v>1</v>
       </c>
       <c r="H43" s="1">
-        <v>6181.6</v>
+        <v>22950.400000000001</v>
       </c>
       <c r="I43" s="1">
         <v>2</v>
@@ -13132,7 +13132,7 @@
         <v>242.477</v>
       </c>
     </row>
-    <row r="44" spans="1:95">
+    <row r="44" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>25</v>
       </c>
@@ -13155,7 +13155,7 @@
         <v>0</v>
       </c>
       <c r="H44" s="1">
-        <v>6181.6</v>
+        <v>22950.400000000001</v>
       </c>
       <c r="I44" s="1">
         <v>2</v>
@@ -13419,7 +13419,7 @@
         <v>237.86689999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:95">
+    <row r="45" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>20</v>
       </c>
@@ -13442,7 +13442,7 @@
         <v>0</v>
       </c>
       <c r="H45" s="1">
-        <v>6181.6</v>
+        <v>22950.400000000001</v>
       </c>
       <c r="I45" s="1">
         <v>2</v>
@@ -13706,7 +13706,7 @@
         <v>237.8682</v>
       </c>
     </row>
-    <row r="46" spans="1:95">
+    <row r="46" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>15</v>
       </c>
@@ -13729,7 +13729,7 @@
         <v>0</v>
       </c>
       <c r="H46" s="1">
-        <v>6181.6</v>
+        <v>22950.400000000001</v>
       </c>
       <c r="I46" s="1">
         <v>2</v>
@@ -13993,7 +13993,7 @@
         <v>237.8595</v>
       </c>
     </row>
-    <row r="47" spans="1:95">
+    <row r="47" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>25</v>
       </c>
@@ -14016,7 +14016,7 @@
         <v>0</v>
       </c>
       <c r="H47" s="1">
-        <v>6181.6</v>
+        <v>22950.400000000001</v>
       </c>
       <c r="I47" s="1">
         <v>2</v>
@@ -14280,7 +14280,7 @@
         <v>237.8587</v>
       </c>
     </row>
-    <row r="48" spans="1:95">
+    <row r="48" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>25</v>
       </c>
@@ -14303,7 +14303,7 @@
         <v>0</v>
       </c>
       <c r="H48" s="1">
-        <v>6181.6</v>
+        <v>22950.400000000001</v>
       </c>
       <c r="I48" s="1">
         <v>2</v>
@@ -14567,7 +14567,7 @@
         <v>237.87459999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:95">
+    <row r="49" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>25</v>
       </c>
@@ -14590,7 +14590,7 @@
         <v>0</v>
       </c>
       <c r="H49" s="1">
-        <v>6181.6</v>
+        <v>22950.400000000001</v>
       </c>
       <c r="I49" s="1">
         <v>2</v>
@@ -14854,7 +14854,7 @@
         <v>237.86600000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:95">
+    <row r="50" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>25</v>
       </c>
@@ -14877,7 +14877,7 @@
         <v>0</v>
       </c>
       <c r="H50" s="1">
-        <v>6181.6</v>
+        <v>22950.400000000001</v>
       </c>
       <c r="I50" s="1">
         <v>2</v>
@@ -15141,7 +15141,7 @@
         <v>237.8612</v>
       </c>
     </row>
-    <row r="51" spans="1:95">
+    <row r="51" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>25</v>
       </c>
@@ -15164,7 +15164,7 @@
         <v>0</v>
       </c>
       <c r="H51" s="1">
-        <v>6181.6</v>
+        <v>22950.400000000001</v>
       </c>
       <c r="I51" s="1">
         <v>2</v>
@@ -15428,7 +15428,7 @@
         <v>237.86349999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:95">
+    <row r="52" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>25</v>
       </c>
@@ -15451,7 +15451,7 @@
         <v>0</v>
       </c>
       <c r="H52" s="1">
-        <v>6181.6</v>
+        <v>22950.400000000001</v>
       </c>
       <c r="I52" s="1">
         <v>2</v>
@@ -15715,7 +15715,7 @@
         <v>237.86179999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:95">
+    <row r="53" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>25</v>
       </c>
@@ -15738,7 +15738,7 @@
         <v>0</v>
       </c>
       <c r="H53" s="1">
-        <v>6181.6</v>
+        <v>22950.400000000001</v>
       </c>
       <c r="I53" s="1">
         <v>2</v>
@@ -16002,7 +16002,7 @@
         <v>237.86869999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:95">
+    <row r="54" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>25</v>
       </c>
@@ -16025,7 +16025,7 @@
         <v>0</v>
       </c>
       <c r="H54" s="1">
-        <v>6181.6</v>
+        <v>22950.400000000001</v>
       </c>
       <c r="I54" s="1">
         <v>2</v>
@@ -16289,7 +16289,7 @@
         <v>237.87299999999999</v>
       </c>
     </row>
-    <row r="55" spans="1:95">
+    <row r="55" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>25</v>
       </c>
@@ -16312,7 +16312,7 @@
         <v>0</v>
       </c>
       <c r="H55" s="1">
-        <v>6181.6</v>
+        <v>22950.400000000001</v>
       </c>
       <c r="I55" s="1">
         <v>2</v>
@@ -16576,7 +16576,7 @@
         <v>237.8638</v>
       </c>
     </row>
-    <row r="56" spans="1:95">
+    <row r="56" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>25</v>
       </c>
@@ -16599,7 +16599,7 @@
         <v>0</v>
       </c>
       <c r="H56" s="1">
-        <v>6181.6</v>
+        <v>22950.400000000001</v>
       </c>
       <c r="I56" s="1">
         <v>2</v>
@@ -16863,7 +16863,7 @@
         <v>237.85890000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:95">
+    <row r="57" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>25</v>
       </c>
@@ -16886,7 +16886,7 @@
         <v>1</v>
       </c>
       <c r="H57" s="1">
-        <v>6181.6</v>
+        <v>22950.400000000001</v>
       </c>
       <c r="I57" s="1">
         <v>2</v>
@@ -17164,429 +17164,429 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="75" spans="1:1">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="76" spans="1:1">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="77" spans="1:1">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="78" spans="1:1">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="79" spans="1:1">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="80" spans="1:1">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="81" spans="1:1">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="82" spans="1:1">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="83" spans="1:1">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="84" spans="1:1">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="85" spans="1:1">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>42</v>
       </c>

--- a/data/metro_sim_month.xlsx
+++ b/data/metro_sim_month.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\streamlit_proJ\KRRI_metro_energy\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\35cpf\KRRI_regression_streamlit-master_230209\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD705C3F-9570-4FDD-8EB9-81CC05F26A1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06FA4A8A-1DCF-4125-9B4A-4520551009CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-4185" windowWidth="16440" windowHeight="28320" xr2:uid="{36C80AAB-B3B6-423F-8100-0ACE8489248F}"/>
+    <workbookView xWindow="38280" yWindow="3660" windowWidth="29040" windowHeight="15720" xr2:uid="{36C80AAB-B3B6-423F-8100-0ACE8489248F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -379,7 +379,7 @@
   <numFmts count="1">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -782,16 +782,16 @@
   <dimension ref="A1:CQ57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.125" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="96" max="16384" width="14.140625" style="4"/>
+    <col min="2" max="2" width="16.375" customWidth="1"/>
+    <col min="96" max="16384" width="14.125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:95" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:95" ht="24">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1078,7 +1078,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:95">
       <c r="A2" s="3">
         <v>25</v>
       </c>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="H2" s="2">
-        <v>49148.800000000003</v>
+        <v>10154</v>
       </c>
       <c r="I2" s="2">
         <v>3</v>
@@ -1365,7 +1365,7 @@
         <v>92.459699999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:95">
       <c r="A3" s="1">
         <v>20</v>
       </c>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="2">
-        <v>49148.800000000003</v>
+        <v>10154</v>
       </c>
       <c r="I3" s="2">
         <v>3</v>
@@ -1652,7 +1652,7 @@
         <v>92.459530000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:95">
       <c r="A4" s="1">
         <v>15</v>
       </c>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="2">
-        <v>49148.800000000003</v>
+        <v>10154</v>
       </c>
       <c r="I4" s="2">
         <v>3</v>
@@ -1939,7 +1939,7 @@
         <v>92.458330000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:95">
       <c r="A5" s="1">
         <v>25</v>
       </c>
@@ -1962,7 +1962,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="2">
-        <v>49148.800000000003</v>
+        <v>10154</v>
       </c>
       <c r="I5" s="2">
         <v>3</v>
@@ -2226,7 +2226,7 @@
         <v>92.459699999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:95">
       <c r="A6" s="1">
         <v>25</v>
       </c>
@@ -2249,7 +2249,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="2">
-        <v>49148.800000000003</v>
+        <v>10154</v>
       </c>
       <c r="I6" s="2">
         <v>3</v>
@@ -2513,7 +2513,7 @@
         <v>92.459599999999995</v>
       </c>
     </row>
-    <row r="7" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:95">
       <c r="A7" s="1">
         <v>25</v>
       </c>
@@ -2536,7 +2536,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="2">
-        <v>49148.800000000003</v>
+        <v>10154</v>
       </c>
       <c r="I7" s="2">
         <v>3</v>
@@ -2800,7 +2800,7 @@
         <v>92.459699999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:95">
       <c r="A8" s="1">
         <v>25</v>
       </c>
@@ -2823,7 +2823,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="2">
-        <v>49148.800000000003</v>
+        <v>10154</v>
       </c>
       <c r="I8" s="2">
         <v>3</v>
@@ -3087,7 +3087,7 @@
         <v>92.459699999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:95">
       <c r="A9" s="1">
         <v>25</v>
       </c>
@@ -3110,7 +3110,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="2">
-        <v>49148.800000000003</v>
+        <v>10154</v>
       </c>
       <c r="I9" s="2">
         <v>3</v>
@@ -3374,7 +3374,7 @@
         <v>92.459699999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:95">
       <c r="A10" s="1">
         <v>25</v>
       </c>
@@ -3397,7 +3397,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="2">
-        <v>49148.800000000003</v>
+        <v>10154</v>
       </c>
       <c r="I10" s="2">
         <v>3</v>
@@ -3661,7 +3661,7 @@
         <v>92.459699999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:95">
       <c r="A11" s="1">
         <v>25</v>
       </c>
@@ -3684,7 +3684,7 @@
         <v>0</v>
       </c>
       <c r="H11" s="2">
-        <v>49148.800000000003</v>
+        <v>10154</v>
       </c>
       <c r="I11" s="2">
         <v>3</v>
@@ -3948,7 +3948,7 @@
         <v>92.459699999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:95">
       <c r="A12" s="1">
         <v>25</v>
       </c>
@@ -3971,7 +3971,7 @@
         <v>0</v>
       </c>
       <c r="H12" s="2">
-        <v>49148.800000000003</v>
+        <v>10154</v>
       </c>
       <c r="I12" s="2">
         <v>3</v>
@@ -4235,7 +4235,7 @@
         <v>92.459699999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:95">
       <c r="A13" s="1">
         <v>25</v>
       </c>
@@ -4258,7 +4258,7 @@
         <v>0</v>
       </c>
       <c r="H13" s="2">
-        <v>49148.800000000003</v>
+        <v>10154</v>
       </c>
       <c r="I13" s="2">
         <v>3</v>
@@ -4522,7 +4522,7 @@
         <v>92.459559999999996</v>
       </c>
     </row>
-    <row r="14" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:95">
       <c r="A14" s="1">
         <v>25</v>
       </c>
@@ -4545,7 +4545,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="2">
-        <v>49148.800000000003</v>
+        <v>10154</v>
       </c>
       <c r="I14" s="2">
         <v>3</v>
@@ -4809,7 +4809,7 @@
         <v>92.459559999999996</v>
       </c>
     </row>
-    <row r="15" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:95">
       <c r="A15" s="1">
         <v>25</v>
       </c>
@@ -4832,7 +4832,7 @@
         <v>1</v>
       </c>
       <c r="H15" s="2">
-        <v>49148.800000000003</v>
+        <v>10154</v>
       </c>
       <c r="I15" s="2">
         <v>3</v>
@@ -5096,7 +5096,7 @@
         <v>92.458849999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:95">
       <c r="A16" s="3">
         <v>25</v>
       </c>
@@ -5119,7 +5119,7 @@
         <v>0</v>
       </c>
       <c r="H16" s="1">
-        <v>22309.7</v>
+        <v>9135.2000000000007</v>
       </c>
       <c r="I16" s="1">
         <v>2</v>
@@ -5383,7 +5383,7 @@
         <v>201.43350000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:95">
       <c r="A17" s="1">
         <v>20</v>
       </c>
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="H17" s="1">
-        <v>22309.7</v>
+        <v>9135.2000000000007</v>
       </c>
       <c r="I17" s="1">
         <v>2</v>
@@ -5670,7 +5670,7 @@
         <v>201.43209999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:95">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -5693,7 +5693,7 @@
         <v>0</v>
       </c>
       <c r="H18" s="1">
-        <v>22309.7</v>
+        <v>9135.2000000000007</v>
       </c>
       <c r="I18" s="1">
         <v>2</v>
@@ -5957,7 +5957,7 @@
         <v>201.43109999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:95">
       <c r="A19" s="1">
         <v>25</v>
       </c>
@@ -5980,7 +5980,7 @@
         <v>0</v>
       </c>
       <c r="H19" s="1">
-        <v>22309.7</v>
+        <v>9135.2000000000007</v>
       </c>
       <c r="I19" s="1">
         <v>2</v>
@@ -6244,7 +6244,7 @@
         <v>201.43209999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:95">
       <c r="A20" s="1">
         <v>25</v>
       </c>
@@ -6267,7 +6267,7 @@
         <v>0</v>
       </c>
       <c r="H20" s="1">
-        <v>22309.7</v>
+        <v>9135.2000000000007</v>
       </c>
       <c r="I20" s="1">
         <v>2</v>
@@ -6531,7 +6531,7 @@
         <v>201.43270000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:95">
       <c r="A21" s="1">
         <v>25</v>
       </c>
@@ -6554,7 +6554,7 @@
         <v>0</v>
       </c>
       <c r="H21" s="1">
-        <v>22309.7</v>
+        <v>9135.2000000000007</v>
       </c>
       <c r="I21" s="1">
         <v>2</v>
@@ -6818,7 +6818,7 @@
         <v>201.43350000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:95">
       <c r="A22" s="1">
         <v>25</v>
       </c>
@@ -6841,7 +6841,7 @@
         <v>0</v>
       </c>
       <c r="H22" s="1">
-        <v>22309.7</v>
+        <v>9135.2000000000007</v>
       </c>
       <c r="I22" s="1">
         <v>2</v>
@@ -7105,7 +7105,7 @@
         <v>201.43350000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:95">
       <c r="A23" s="1">
         <v>25</v>
       </c>
@@ -7128,7 +7128,7 @@
         <v>0</v>
       </c>
       <c r="H23" s="1">
-        <v>22309.7</v>
+        <v>9135.2000000000007</v>
       </c>
       <c r="I23" s="1">
         <v>2</v>
@@ -7392,7 +7392,7 @@
         <v>201.43350000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:95">
       <c r="A24" s="1">
         <v>25</v>
       </c>
@@ -7415,7 +7415,7 @@
         <v>0</v>
       </c>
       <c r="H24" s="1">
-        <v>22309.7</v>
+        <v>9135.2000000000007</v>
       </c>
       <c r="I24" s="1">
         <v>2</v>
@@ -7679,7 +7679,7 @@
         <v>201.43350000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:95">
       <c r="A25" s="1">
         <v>25</v>
       </c>
@@ -7702,7 +7702,7 @@
         <v>0</v>
       </c>
       <c r="H25" s="1">
-        <v>22309.7</v>
+        <v>9135.2000000000007</v>
       </c>
       <c r="I25" s="1">
         <v>2</v>
@@ -7966,7 +7966,7 @@
         <v>201.43350000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:95">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -7989,7 +7989,7 @@
         <v>0</v>
       </c>
       <c r="H26" s="1">
-        <v>22309.7</v>
+        <v>9135.2000000000007</v>
       </c>
       <c r="I26" s="1">
         <v>2</v>
@@ -8253,7 +8253,7 @@
         <v>201.43350000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:95">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -8276,7 +8276,7 @@
         <v>0</v>
       </c>
       <c r="H27" s="1">
-        <v>22309.7</v>
+        <v>9135.2000000000007</v>
       </c>
       <c r="I27" s="1">
         <v>2</v>
@@ -8540,7 +8540,7 @@
         <v>201.43350000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:95">
       <c r="A28" s="1">
         <v>25</v>
       </c>
@@ -8563,7 +8563,7 @@
         <v>0</v>
       </c>
       <c r="H28" s="1">
-        <v>22309.7</v>
+        <v>9135.2000000000007</v>
       </c>
       <c r="I28" s="1">
         <v>2</v>
@@ -8827,7 +8827,7 @@
         <v>201.43350000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:95">
       <c r="A29" s="1">
         <v>25</v>
       </c>
@@ -8850,7 +8850,7 @@
         <v>1</v>
       </c>
       <c r="H29" s="1">
-        <v>22309.7</v>
+        <v>9135.2000000000007</v>
       </c>
       <c r="I29" s="1">
         <v>2</v>
@@ -9114,7 +9114,7 @@
         <v>201.4521</v>
       </c>
     </row>
-    <row r="30" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:95">
       <c r="A30" s="3">
         <v>25</v>
       </c>
@@ -9137,7 +9137,7 @@
         <v>0</v>
       </c>
       <c r="H30" s="1">
-        <v>22950.400000000001</v>
+        <v>6181.6</v>
       </c>
       <c r="I30" s="1">
         <v>2</v>
@@ -9401,7 +9401,7 @@
         <v>242.46639999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:95">
       <c r="A31" s="1">
         <v>20</v>
       </c>
@@ -9424,7 +9424,7 @@
         <v>0</v>
       </c>
       <c r="H31" s="1">
-        <v>22950.400000000001</v>
+        <v>6181.6</v>
       </c>
       <c r="I31" s="1">
         <v>2</v>
@@ -9688,7 +9688,7 @@
         <v>242.46639999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:95">
       <c r="A32" s="1">
         <v>15</v>
       </c>
@@ -9711,7 +9711,7 @@
         <v>0</v>
       </c>
       <c r="H32" s="1">
-        <v>22950.400000000001</v>
+        <v>6181.6</v>
       </c>
       <c r="I32" s="1">
         <v>2</v>
@@ -9975,7 +9975,7 @@
         <v>242.46639999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:95">
       <c r="A33" s="1">
         <v>25</v>
       </c>
@@ -9998,7 +9998,7 @@
         <v>0</v>
       </c>
       <c r="H33" s="1">
-        <v>22950.400000000001</v>
+        <v>6181.6</v>
       </c>
       <c r="I33" s="1">
         <v>2</v>
@@ -10262,7 +10262,7 @@
         <v>242.46709999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:95">
       <c r="A34" s="1">
         <v>25</v>
       </c>
@@ -10285,7 +10285,7 @@
         <v>0</v>
       </c>
       <c r="H34" s="1">
-        <v>22950.400000000001</v>
+        <v>6181.6</v>
       </c>
       <c r="I34" s="1">
         <v>2</v>
@@ -10549,7 +10549,7 @@
         <v>242.47</v>
       </c>
     </row>
-    <row r="35" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:95">
       <c r="A35" s="1">
         <v>25</v>
       </c>
@@ -10572,7 +10572,7 @@
         <v>0</v>
       </c>
       <c r="H35" s="1">
-        <v>22950.400000000001</v>
+        <v>6181.6</v>
       </c>
       <c r="I35" s="1">
         <v>2</v>
@@ -10836,7 +10836,7 @@
         <v>242.46639999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:95">
       <c r="A36" s="1">
         <v>25</v>
       </c>
@@ -10859,7 +10859,7 @@
         <v>0</v>
       </c>
       <c r="H36" s="1">
-        <v>22950.400000000001</v>
+        <v>6181.6</v>
       </c>
       <c r="I36" s="1">
         <v>2</v>
@@ -11123,7 +11123,7 @@
         <v>242.46639999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:95">
       <c r="A37" s="1">
         <v>25</v>
       </c>
@@ -11146,7 +11146,7 @@
         <v>0</v>
       </c>
       <c r="H37" s="1">
-        <v>22950.400000000001</v>
+        <v>6181.6</v>
       </c>
       <c r="I37" s="1">
         <v>2</v>
@@ -11410,7 +11410,7 @@
         <v>242.46639999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:95">
       <c r="A38" s="1">
         <v>25</v>
       </c>
@@ -11433,7 +11433,7 @@
         <v>0</v>
       </c>
       <c r="H38" s="1">
-        <v>22950.400000000001</v>
+        <v>6181.6</v>
       </c>
       <c r="I38" s="1">
         <v>2</v>
@@ -11697,7 +11697,7 @@
         <v>242.46639999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:95">
       <c r="A39" s="1">
         <v>25</v>
       </c>
@@ -11720,7 +11720,7 @@
         <v>0</v>
       </c>
       <c r="H39" s="1">
-        <v>22950.400000000001</v>
+        <v>6181.6</v>
       </c>
       <c r="I39" s="1">
         <v>2</v>
@@ -11984,7 +11984,7 @@
         <v>242.46639999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:95">
       <c r="A40" s="1">
         <v>25</v>
       </c>
@@ -12007,7 +12007,7 @@
         <v>0</v>
       </c>
       <c r="H40" s="1">
-        <v>22950.400000000001</v>
+        <v>6181.6</v>
       </c>
       <c r="I40" s="1">
         <v>2</v>
@@ -12271,7 +12271,7 @@
         <v>242.46639999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:95">
       <c r="A41" s="1">
         <v>25</v>
       </c>
@@ -12294,7 +12294,7 @@
         <v>0</v>
       </c>
       <c r="H41" s="1">
-        <v>22950.400000000001</v>
+        <v>6181.6</v>
       </c>
       <c r="I41" s="1">
         <v>2</v>
@@ -12558,7 +12558,7 @@
         <v>242.46639999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:95">
       <c r="A42" s="1">
         <v>25</v>
       </c>
@@ -12581,7 +12581,7 @@
         <v>0</v>
       </c>
       <c r="H42" s="1">
-        <v>22950.400000000001</v>
+        <v>6181.6</v>
       </c>
       <c r="I42" s="1">
         <v>2</v>
@@ -12845,7 +12845,7 @@
         <v>242.46639999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:95">
       <c r="A43" s="1">
         <v>25</v>
       </c>
@@ -12868,7 +12868,7 @@
         <v>1</v>
       </c>
       <c r="H43" s="1">
-        <v>22950.400000000001</v>
+        <v>6181.6</v>
       </c>
       <c r="I43" s="1">
         <v>2</v>
@@ -13132,7 +13132,7 @@
         <v>242.477</v>
       </c>
     </row>
-    <row r="44" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:95">
       <c r="A44" s="3">
         <v>25</v>
       </c>
@@ -13155,7 +13155,7 @@
         <v>0</v>
       </c>
       <c r="H44" s="1">
-        <v>22950.400000000001</v>
+        <v>6181.6</v>
       </c>
       <c r="I44" s="1">
         <v>2</v>
@@ -13419,7 +13419,7 @@
         <v>237.86689999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:95">
       <c r="A45" s="1">
         <v>20</v>
       </c>
@@ -13442,7 +13442,7 @@
         <v>0</v>
       </c>
       <c r="H45" s="1">
-        <v>22950.400000000001</v>
+        <v>6181.6</v>
       </c>
       <c r="I45" s="1">
         <v>2</v>
@@ -13706,7 +13706,7 @@
         <v>237.8682</v>
       </c>
     </row>
-    <row r="46" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:95">
       <c r="A46" s="1">
         <v>15</v>
       </c>
@@ -13729,7 +13729,7 @@
         <v>0</v>
       </c>
       <c r="H46" s="1">
-        <v>22950.400000000001</v>
+        <v>6181.6</v>
       </c>
       <c r="I46" s="1">
         <v>2</v>
@@ -13993,7 +13993,7 @@
         <v>237.8595</v>
       </c>
     </row>
-    <row r="47" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:95">
       <c r="A47" s="1">
         <v>25</v>
       </c>
@@ -14016,7 +14016,7 @@
         <v>0</v>
       </c>
       <c r="H47" s="1">
-        <v>22950.400000000001</v>
+        <v>6181.6</v>
       </c>
       <c r="I47" s="1">
         <v>2</v>
@@ -14280,7 +14280,7 @@
         <v>237.8587</v>
       </c>
     </row>
-    <row r="48" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:95">
       <c r="A48" s="1">
         <v>25</v>
       </c>
@@ -14303,7 +14303,7 @@
         <v>0</v>
       </c>
       <c r="H48" s="1">
-        <v>22950.400000000001</v>
+        <v>6181.6</v>
       </c>
       <c r="I48" s="1">
         <v>2</v>
@@ -14567,7 +14567,7 @@
         <v>237.87459999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:95">
       <c r="A49" s="1">
         <v>25</v>
       </c>
@@ -14590,7 +14590,7 @@
         <v>0</v>
       </c>
       <c r="H49" s="1">
-        <v>22950.400000000001</v>
+        <v>6181.6</v>
       </c>
       <c r="I49" s="1">
         <v>2</v>
@@ -14854,7 +14854,7 @@
         <v>237.86600000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:95">
       <c r="A50" s="1">
         <v>25</v>
       </c>
@@ -14877,7 +14877,7 @@
         <v>0</v>
       </c>
       <c r="H50" s="1">
-        <v>22950.400000000001</v>
+        <v>6181.6</v>
       </c>
       <c r="I50" s="1">
         <v>2</v>
@@ -15141,7 +15141,7 @@
         <v>237.8612</v>
       </c>
     </row>
-    <row r="51" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:95">
       <c r="A51" s="1">
         <v>25</v>
       </c>
@@ -15164,7 +15164,7 @@
         <v>0</v>
       </c>
       <c r="H51" s="1">
-        <v>22950.400000000001</v>
+        <v>6181.6</v>
       </c>
       <c r="I51" s="1">
         <v>2</v>
@@ -15428,7 +15428,7 @@
         <v>237.86349999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:95">
       <c r="A52" s="1">
         <v>25</v>
       </c>
@@ -15451,7 +15451,7 @@
         <v>0</v>
       </c>
       <c r="H52" s="1">
-        <v>22950.400000000001</v>
+        <v>6181.6</v>
       </c>
       <c r="I52" s="1">
         <v>2</v>
@@ -15715,7 +15715,7 @@
         <v>237.86179999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:95">
       <c r="A53" s="1">
         <v>25</v>
       </c>
@@ -15738,7 +15738,7 @@
         <v>0</v>
       </c>
       <c r="H53" s="1">
-        <v>22950.400000000001</v>
+        <v>6181.6</v>
       </c>
       <c r="I53" s="1">
         <v>2</v>
@@ -16002,7 +16002,7 @@
         <v>237.86869999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:95">
       <c r="A54" s="1">
         <v>25</v>
       </c>
@@ -16025,7 +16025,7 @@
         <v>0</v>
       </c>
       <c r="H54" s="1">
-        <v>22950.400000000001</v>
+        <v>6181.6</v>
       </c>
       <c r="I54" s="1">
         <v>2</v>
@@ -16289,7 +16289,7 @@
         <v>237.87299999999999</v>
       </c>
     </row>
-    <row r="55" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:95">
       <c r="A55" s="1">
         <v>25</v>
       </c>
@@ -16312,7 +16312,7 @@
         <v>0</v>
       </c>
       <c r="H55" s="1">
-        <v>22950.400000000001</v>
+        <v>6181.6</v>
       </c>
       <c r="I55" s="1">
         <v>2</v>
@@ -16576,7 +16576,7 @@
         <v>237.8638</v>
       </c>
     </row>
-    <row r="56" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:95">
       <c r="A56" s="1">
         <v>25</v>
       </c>
@@ -16599,7 +16599,7 @@
         <v>0</v>
       </c>
       <c r="H56" s="1">
-        <v>22950.400000000001</v>
+        <v>6181.6</v>
       </c>
       <c r="I56" s="1">
         <v>2</v>
@@ -16863,7 +16863,7 @@
         <v>237.85890000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:95">
       <c r="A57" s="1">
         <v>25</v>
       </c>
@@ -16886,7 +16886,7 @@
         <v>1</v>
       </c>
       <c r="H57" s="1">
-        <v>22950.400000000001</v>
+        <v>6181.6</v>
       </c>
       <c r="I57" s="1">
         <v>2</v>
@@ -17164,429 +17164,429 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1">
       <c r="A8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1">
       <c r="A9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1">
       <c r="A10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1">
       <c r="A11" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1">
       <c r="A12" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1">
       <c r="A13" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1">
       <c r="A14" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1">
       <c r="A15" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1">
       <c r="A16" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1">
       <c r="A18" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1">
       <c r="A19" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1">
       <c r="A20" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1">
       <c r="A21" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1">
       <c r="A22" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1">
       <c r="A23" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1">
       <c r="A24" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1">
       <c r="A25" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1">
       <c r="A26" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1">
       <c r="A27" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1">
       <c r="A28" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1">
       <c r="A29" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1">
       <c r="A30" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1">
       <c r="A31" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1">
       <c r="A32" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1">
       <c r="A33" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1">
       <c r="A34" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1">
       <c r="A35" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1">
       <c r="A36" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1">
       <c r="A37" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1">
       <c r="A38" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1">
       <c r="A39" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1">
       <c r="A40" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1">
       <c r="A41" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1">
       <c r="A42" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1">
       <c r="A43" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1">
       <c r="A44" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1">
       <c r="A45" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1">
       <c r="A46" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1">
       <c r="A47" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1">
       <c r="A48" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1">
       <c r="A49" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1">
       <c r="A50" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1">
       <c r="A51" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1">
       <c r="A52" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1">
       <c r="A53" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1">
       <c r="A54" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1">
       <c r="A55" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1">
       <c r="A56" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1">
       <c r="A57" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1">
       <c r="A58" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1">
       <c r="A59" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1">
       <c r="A60" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1">
       <c r="A61" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1">
       <c r="A62" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1">
       <c r="A63" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1">
       <c r="A64" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1">
       <c r="A65" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1">
       <c r="A66" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1">
       <c r="A67" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1">
       <c r="A68" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1">
       <c r="A69" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1">
       <c r="A70" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1">
       <c r="A71" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1">
       <c r="A72" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1">
       <c r="A73" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1">
       <c r="A74" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1">
       <c r="A75" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1">
       <c r="A76" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1">
       <c r="A77" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1">
       <c r="A78" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1">
       <c r="A79" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1">
       <c r="A80" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1">
       <c r="A81" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1">
       <c r="A82" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1">
       <c r="A83" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1">
       <c r="A84" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1">
       <c r="A85" t="s">
         <v>42</v>
       </c>
